--- a/git_structure.xlsx
+++ b/git_structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YZH.Wang\study\github_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YZH.Wang\study\github_study\GitHub\Study-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376802C-5C72-4E29-AD25-402DA6CD3D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C466FA9-8C57-4650-8414-2FE48921DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>本地工作区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,12 +50,20 @@
     <t>.git/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +85,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -230,6 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -259,8 +277,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -283,7 +301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1276350" y="768351"/>
-          <a:ext cx="1987550" cy="4565649"/>
+          <a:ext cx="1987550" cy="2508249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -447,7 +465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3308350" y="1285875"/>
-          <a:ext cx="3276600" cy="673100"/>
+          <a:ext cx="3276600" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -476,7 +494,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>git checkou</a:t>
+            <a:t>git checkout</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -679,6 +697,479 @@
             <a:t>git fetch</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 左 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0C1BB7-AF13-4B4E-96E7-0B83C3FA7675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3308350" y="4156075"/>
+          <a:ext cx="3956050" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git checkout branch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BAE6CB-3DC3-42A1-B792-5D3A4E93ED5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333501" y="4057650"/>
+          <a:ext cx="1913384" cy="1441450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 左 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED828FE-2D5F-4C21-A467-3B1D6E211FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="5921375"/>
+          <a:ext cx="3302000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git checkout master</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D34EF2A-1E96-4003-9E76-E0B5EFA501FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="12071" r="40680" b="10129"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="5816600"/>
+          <a:ext cx="1987550" cy="2508249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 左 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A949D901-5795-48F5-9CD9-FE1EE5062B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3308350" y="8766175"/>
+          <a:ext cx="3962400" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git merge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> branch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD22611-7125-4CD1-BD2A-A24B0CEA8C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="8483600"/>
+          <a:ext cx="1993900" cy="3213100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFDADF5-A753-4EE5-855D-05324A671615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="4743450"/>
+          <a:ext cx="1930400" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7DEE56-DF2E-4259-B8CF-CBF43E87376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="9963150"/>
+          <a:ext cx="1930400" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -950,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:R18"/>
+  <dimension ref="C4:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1026,12 +1517,16 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
@@ -1135,6 +1630,253 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="9"/>
     </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="3:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="4"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="3:18" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="4"/>
+      <c r="L25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="11:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K44" s="4"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K45" s="4"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="7:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" s="14"/>
+      <c r="L50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K52" s="4"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K53" s="4"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K54" s="4"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K55" s="4"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="7:13" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="16"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K57" s="4"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K58" s="4"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K59" s="4"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K61" s="4"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K62" s="4"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K63" s="4"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="K64" s="4"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K65" s="4"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="11:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
